--- a/NformTester/NformTester/Keywordscripts/600.20.20.140_ModifyForwardTrapAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.140_ModifyForwardTrapAction.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7839" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7851" uniqueCount="878">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3867,10 +3867,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"Forward-trap"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"action-forwardtrap"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3937,6 +3933,14 @@
   </si>
   <si>
     <t>Text</t>
+  </si>
+  <si>
+    <t>"myForward-trap"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4206,74 +4210,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -4285,7 +4221,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4562,16 +4498,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="35.25" customWidth="1"/>
     <col min="6" max="6" width="29.25" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -4631,7 +4567,7 @@
         <v>820</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4657,13 +4593,13 @@
         <v>821</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>0</v>
@@ -4673,13 +4609,13 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>862</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>863</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -4698,7 +4634,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -4723,7 +4659,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>620</v>
@@ -4733,13 +4669,13 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>867</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>868</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -4751,7 +4687,7 @@
         <v>825</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4775,7 +4711,7 @@
         <v>803</v>
       </c>
       <c r="B7" s="12">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -5132,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -5333,7 +5269,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="4"/>
@@ -5517,7 +5453,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -5544,7 +5480,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -5596,7 +5532,7 @@
         <v>56</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="4"/>
@@ -5648,13 +5584,13 @@
         <v>7</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>841</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -5678,13 +5614,13 @@
         <v>7</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>841</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -5708,7 +5644,7 @@
         <v>4</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>854</v>
+        <v>876</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="4"/>
@@ -5901,7 +5837,7 @@
         <v>56</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -5951,7 +5887,7 @@
         <v>56</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -6097,14 +6033,12 @@
         <v>348</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>859</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -6117,13 +6051,13 @@
         <v>55</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>348</v>
+        <v>840</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>2</v>
@@ -6141,13 +6075,13 @@
         <v>56</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>857</v>
+        <v>840</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>2</v>
@@ -6165,16 +6099,20 @@
         <v>57</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>851</v>
+        <v>828</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="F58" s="4">
-        <v>5</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
+        <v>348</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>858</v>
+      </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -6193,7 +6131,7 @@
         <v>348</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>2</v>
@@ -6206,16 +6144,22 @@
       <c r="M59" s="4"/>
       <c r="N59" s="10"/>
     </row>
-    <row r="60" spans="3:14" s="2" customFormat="1" ht="15">
+    <row r="60" spans="3:14" s="2" customFormat="1">
       <c r="C60" s="4">
         <v>59</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+      <c r="D60" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -6229,10 +6173,10 @@
         <v>60</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>848</v>
+        <v>799</v>
       </c>
       <c r="F61" s="4">
         <v>5</v>
@@ -6254,40 +6198,34 @@
         <v>828</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="10"/>
     </row>
-    <row r="63" spans="3:14" s="2" customFormat="1">
+    <row r="63" spans="3:14" s="2" customFormat="1" ht="15">
       <c r="C63" s="4">
         <v>62</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
+      <c r="D63" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -6299,20 +6237,16 @@
         <v>63</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>845</v>
-      </c>
+        <v>848</v>
+      </c>
+      <c r="F64" s="4">
+        <v>5</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -6320,24 +6254,24 @@
       <c r="M64" s="4"/>
       <c r="N64" s="10"/>
     </row>
-    <row r="65" spans="3:14" s="2" customFormat="1" ht="14.25">
+    <row r="65" spans="3:14" s="2" customFormat="1">
       <c r="C65" s="4">
         <v>64</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>850</v>
+        <v>19</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H65" s="11"/>
-      <c r="I65" s="4"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -6351,17 +6285,17 @@
       <c r="D66" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>628</v>
+      <c r="E66" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H66" s="6"/>
-      <c r="I66" s="4"/>
+      <c r="I66" s="6"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -6379,34 +6313,38 @@
         <v>850</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>100</v>
+        <v>621</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="10"/>
     </row>
-    <row r="68" spans="3:14" s="2" customFormat="1">
+    <row r="68" spans="3:14" s="2" customFormat="1" ht="14.25">
       <c r="C68" s="4">
         <v>67</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="F68" s="4">
-        <v>3</v>
-      </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
+        <v>850</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="11"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -6414,9 +6352,79 @@
       <c r="M68" s="4"/>
       <c r="N68" s="10"/>
     </row>
+    <row r="69" spans="3:14" s="2" customFormat="1">
+      <c r="C69" s="4">
+        <v>68</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="10"/>
+    </row>
+    <row r="70" spans="3:14" s="2" customFormat="1">
+      <c r="C70" s="4">
+        <v>69</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="10"/>
+    </row>
+    <row r="71" spans="3:14" s="2" customFormat="1">
+      <c r="C71" s="4">
+        <v>70</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="F71" s="4">
+        <v>3</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N68">
+  <conditionalFormatting sqref="N2:N71">
     <cfRule type="cellIs" dxfId="1" priority="57" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6425,16 +6433,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D68 D62 D45:D51 D54:D59 D36:D43 D32:D34 D29 D26:D27 D3 D7:D24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D71 D65 D45:D51 D7:D24 D36:D43 D32:D34 D29 D26:D27 D3 D54:D62">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G65:G68 G2:G63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G68:G71 G2:G66">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F71">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E71">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
@@ -29437,7 +29445,7 @@
         <v>820</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -29445,7 +29453,7 @@
         <v>821</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -29469,7 +29477,7 @@
         <v>825</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/NformTester/NformTester/Keywordscripts/600.20.20.140_ModifyForwardTrapAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.140_ModifyForwardTrapAction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570"/>
@@ -1255,12 +1255,12 @@
     <definedName name="VerifyTxtfileValues">'Form DataValDepend'!$CH$1</definedName>
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CH:$CH</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7851" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7880" uniqueCount="878">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4188,12 +4188,54 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4214,7 +4256,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4498,10 +4540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4711,7 +4753,7 @@
         <v>803</v>
       </c>
       <c r="B7" s="12">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -5526,15 +5568,13 @@
         <v>352</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>357</v>
+        <v>17</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="I35" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -5547,19 +5587,19 @@
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -5572,56 +5612,43 @@
         <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>828</v>
+        <v>851</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>875</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>873</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="10"/>
+      <c r="O37" s="3"/>
     </row>
     <row r="38" spans="3:15" s="2" customFormat="1">
       <c r="C38" s="4">
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>431</v>
+        <v>840</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>875</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>874</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -5634,19 +5661,17 @@
       <c r="D39" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>431</v>
+      <c r="E39" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>876</v>
-      </c>
-      <c r="I39" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -5661,18 +5686,18 @@
         <v>840</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>431</v>
+        <v>348</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>221</v>
+        <v>351</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="I40" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -5684,25 +5709,24 @@
         <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>431</v>
+        <v>348</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H41" s="6"/>
-      <c r="I41" s="4"/>
+      <c r="I41" s="6"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="10"/>
-      <c r="O41" s="3"/>
     </row>
     <row r="42" spans="3:15" s="2" customFormat="1">
       <c r="C42" s="4">
@@ -5715,13 +5739,15 @@
         <v>352</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>17</v>
+        <v>357</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="I42" s="6"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -5734,19 +5760,19 @@
         <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -5754,19 +5780,31 @@
       <c r="N43" s="10"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="3:15" s="2" customFormat="1" ht="15">
+    <row r="44" spans="3:15" s="2" customFormat="1">
       <c r="C44" s="4">
         <v>43</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>852</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="D44" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>873</v>
+      </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -5777,20 +5815,26 @@
         <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>19</v>
+        <v>828</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>431</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>874</v>
+      </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -5801,19 +5845,21 @@
         <v>45</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>19</v>
+        <v>840</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>431</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="I46" s="6"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -5825,21 +5871,21 @@
         <v>46</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>348</v>
+        <v>431</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>351</v>
+        <v>221</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>858</v>
-      </c>
-      <c r="I47" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="I47" s="6"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -5851,26 +5897,27 @@
         <v>47</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>855</v>
+        <v>828</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>348</v>
+        <v>431</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="10"/>
+      <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="3:14" s="2" customFormat="1">
+    <row r="49" spans="3:15" s="2" customFormat="1">
       <c r="C49" s="4">
         <v>48</v>
       </c>
@@ -5881,22 +5928,21 @@
         <v>352</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>357</v>
+        <v>17</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>876</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="10"/>
+      <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="3:14" s="2" customFormat="1">
+    <row r="50" spans="3:15" s="2" customFormat="1">
       <c r="C50" s="4">
         <v>49</v>
       </c>
@@ -5904,44 +5950,33 @@
         <v>828</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="J50" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="10"/>
+      <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="3:14" s="2" customFormat="1">
+    <row r="51" spans="3:15" s="2" customFormat="1" ht="15">
       <c r="C51" s="4">
         <v>50</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D51" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -5950,71 +5985,73 @@
       <c r="M51" s="4"/>
       <c r="N51" s="10"/>
     </row>
-    <row r="52" spans="3:14" s="2" customFormat="1">
+    <row r="52" spans="3:15" s="2" customFormat="1">
       <c r="C52" s="4">
         <v>51</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>644</v>
+        <v>855</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>196</v>
+        <v>22</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="10"/>
     </row>
-    <row r="53" spans="3:14" s="2" customFormat="1">
+    <row r="53" spans="3:15" s="2" customFormat="1">
       <c r="C53" s="4">
         <v>52</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>644</v>
+        <v>855</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="10"/>
     </row>
-    <row r="54" spans="3:14" s="2" customFormat="1">
+    <row r="54" spans="3:15" s="2" customFormat="1">
       <c r="C54" s="4">
         <v>53</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>828</v>
+        <v>855</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>100</v>
+        <v>351</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H54" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>858</v>
+      </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -6022,47 +6059,49 @@
       <c r="M54" s="4"/>
       <c r="N54" s="10"/>
     </row>
-    <row r="55" spans="3:14" s="2" customFormat="1">
+    <row r="55" spans="3:15" s="2" customFormat="1">
       <c r="C55" s="4">
         <v>54</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>828</v>
+        <v>855</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>348</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="10"/>
     </row>
-    <row r="56" spans="3:14" s="2" customFormat="1">
+    <row r="56" spans="3:15" s="2" customFormat="1">
       <c r="C56" s="4">
         <v>55</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>19</v>
+        <v>828</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>22</v>
+        <v>357</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>876</v>
+      </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -6070,31 +6109,37 @@
       <c r="M56" s="4"/>
       <c r="N56" s="10"/>
     </row>
-    <row r="57" spans="3:14" s="2" customFormat="1">
+    <row r="57" spans="3:15" s="2" customFormat="1">
       <c r="C57" s="4">
         <v>56</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>19</v>
+        <v>828</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="J57" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="10"/>
     </row>
-    <row r="58" spans="3:14" s="2" customFormat="1">
+    <row r="58" spans="3:15" s="2" customFormat="1">
       <c r="C58" s="4">
         <v>57</v>
       </c>
@@ -6102,17 +6147,15 @@
         <v>828</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>351</v>
+        <v>213</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>858</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -6120,7 +6163,7 @@
       <c r="M58" s="4"/>
       <c r="N58" s="10"/>
     </row>
-    <row r="59" spans="3:14" s="2" customFormat="1">
+    <row r="59" spans="3:15" s="2" customFormat="1">
       <c r="C59" s="4">
         <v>58</v>
       </c>
@@ -6128,60 +6171,62 @@
         <v>828</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>348</v>
+        <v>644</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="10"/>
     </row>
-    <row r="60" spans="3:14" s="2" customFormat="1">
+    <row r="60" spans="3:15" s="2" customFormat="1">
       <c r="C60" s="4">
         <v>59</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>877</v>
+        <v>828</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>857</v>
+        <v>644</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="10"/>
     </row>
-    <row r="61" spans="3:14" s="2" customFormat="1">
+    <row r="61" spans="3:15" s="2" customFormat="1">
       <c r="C61" s="4">
         <v>60</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>851</v>
+        <v>828</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="F61" s="4">
-        <v>5</v>
-      </c>
-      <c r="G61" s="4"/>
+        <v>352</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -6190,7 +6235,7 @@
       <c r="M61" s="4"/>
       <c r="N61" s="10"/>
     </row>
-    <row r="62" spans="3:14" s="2" customFormat="1">
+    <row r="62" spans="3:15" s="2" customFormat="1">
       <c r="C62" s="4">
         <v>61</v>
       </c>
@@ -6214,38 +6259,45 @@
       <c r="M62" s="4"/>
       <c r="N62" s="10"/>
     </row>
-    <row r="63" spans="3:14" s="2" customFormat="1" ht="15">
+    <row r="63" spans="3:15" s="2" customFormat="1">
       <c r="C63" s="4">
         <v>62</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="4"/>
+      <c r="D63" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
       <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
+      <c r="H63" s="6"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="10"/>
+      <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="3:14" s="2" customFormat="1">
+    <row r="64" spans="3:15" s="2" customFormat="1">
       <c r="C64" s="4">
         <v>63</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="F64" s="4">
-        <v>5</v>
-      </c>
-      <c r="G64" s="4"/>
+        <v>840</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -6259,19 +6311,19 @@
         <v>64</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="E65" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -6283,19 +6335,21 @@
         <v>65</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -6307,20 +6361,18 @@
         <v>66</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>850</v>
+        <v>348</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>621</v>
+        <v>213</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>845</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -6328,23 +6380,23 @@
       <c r="M67" s="4"/>
       <c r="N67" s="10"/>
     </row>
-    <row r="68" spans="3:14" s="2" customFormat="1" ht="14.25">
+    <row r="68" spans="3:14" s="2" customFormat="1">
       <c r="C68" s="4">
         <v>67</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>849</v>
+        <v>877</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H68" s="11"/>
+      <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -6357,18 +6409,16 @@
         <v>68</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H69" s="6"/>
+        <v>851</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="F69" s="4">
+        <v>5</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -6381,10 +6431,10 @@
         <v>69</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>850</v>
+        <v>348</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>100</v>
@@ -6392,27 +6442,23 @@
       <c r="G70" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="10"/>
     </row>
-    <row r="71" spans="3:14" s="2" customFormat="1">
+    <row r="71" spans="3:14" s="2" customFormat="1" ht="15">
       <c r="C71" s="4">
         <v>70</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="F71" s="4">
-        <v>3</v>
-      </c>
+      <c r="D71" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -6422,27 +6468,217 @@
       <c r="M71" s="4"/>
       <c r="N71" s="10"/>
     </row>
+    <row r="72" spans="3:14" s="2" customFormat="1">
+      <c r="C72" s="4">
+        <v>71</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="F72" s="4">
+        <v>5</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="10"/>
+    </row>
+    <row r="73" spans="3:14" s="2" customFormat="1">
+      <c r="C73" s="4">
+        <v>72</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="10"/>
+    </row>
+    <row r="74" spans="3:14" s="2" customFormat="1">
+      <c r="C74" s="4">
+        <v>73</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="10"/>
+    </row>
+    <row r="75" spans="3:14" s="2" customFormat="1">
+      <c r="C75" s="4">
+        <v>74</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="10"/>
+    </row>
+    <row r="76" spans="3:14" s="2" customFormat="1" ht="14.25">
+      <c r="C76" s="4">
+        <v>75</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" s="11"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="10"/>
+    </row>
+    <row r="77" spans="3:14" s="2" customFormat="1">
+      <c r="C77" s="4">
+        <v>76</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="10"/>
+    </row>
+    <row r="78" spans="3:14" s="2" customFormat="1">
+      <c r="C78" s="4">
+        <v>77</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="10"/>
+    </row>
+    <row r="79" spans="3:14" s="2" customFormat="1">
+      <c r="C79" s="4">
+        <v>78</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="F79" s="4">
+        <v>3</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N71">
-    <cfRule type="cellIs" dxfId="1" priority="57" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N79">
+    <cfRule type="cellIs" dxfId="3" priority="57" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="58" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D71 D65 D45:D51 D7:D24 D36:D43 D32:D34 D29 D26:D27 D3 D54:D62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D79 D73 D52:D58 D7:D24 D43:D50 D32:D41 D29 D26:D27 D3 D61:D70">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G68:G71 G2:G66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G76:G79 G2:G74">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F79">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E79">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
